--- a/Vue20200516/vue01docs/Vue정리-20200515.xlsx
+++ b/Vue20200516/vue01docs/Vue정리-20200515.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TIS20200515\TIS20_05-06\Vue20200516\vue01docs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="24240" windowHeight="12780"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8100"/>
   </bookViews>
   <sheets>
     <sheet name="용어" sheetId="4" r:id="rId1"/>
@@ -15,6 +20,7 @@
     <sheet name="Vue상태관리" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="145621"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -958,7 +964,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1295,6 +1301,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -3298,7 +3307,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3333,7 +3342,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3548,7 +3557,7 @@
       <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="11.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
@@ -3558,7 +3567,7 @@
     <col min="8" max="9" width="10.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="26.25">
       <c r="A1" s="38" t="s">
         <v>51</v>
       </c>
@@ -3571,7 +3580,7 @@
       <c r="H1" s="38"/>
       <c r="I1" s="5"/>
     </row>
-    <row r="2" spans="1:9" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="26.25">
       <c r="A2" s="38" t="s">
         <v>50</v>
       </c>
@@ -3584,7 +3593,7 @@
       <c r="H2" s="10"/>
       <c r="I2" s="5"/>
     </row>
-    <row r="3" spans="1:9" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="26.25">
       <c r="A3" s="10" t="s">
         <v>52</v>
       </c>
@@ -3597,7 +3606,7 @@
       <c r="H3" s="10"/>
       <c r="I3" s="5"/>
     </row>
-    <row r="4" spans="1:9" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="26.25">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -3605,7 +3614,7 @@
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9">
       <c r="A5" s="4" t="s">
         <v>27</v>
       </c>
@@ -3613,7 +3622,7 @@
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9">
       <c r="A6" s="39" t="s">
         <v>28</v>
       </c>
@@ -3629,7 +3638,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9">
       <c r="A7" s="6" t="s">
         <v>30</v>
       </c>
@@ -3649,7 +3658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9">
       <c r="A8" s="6" t="s">
         <v>32</v>
       </c>
@@ -3669,7 +3678,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9">
       <c r="A9" s="6" t="s">
         <v>49</v>
       </c>
@@ -3685,7 +3694,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9">
       <c r="A10" s="7"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
@@ -3696,7 +3705,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9">
       <c r="A11" s="6" t="s">
         <v>34</v>
       </c>
@@ -3709,7 +3718,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9">
       <c r="A12" s="6" t="s">
         <v>35</v>
       </c>
@@ -3720,7 +3729,7 @@
       <c r="G12" s="17"/>
       <c r="H12" s="18"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9">
       <c r="A13" s="6" t="s">
         <v>37</v>
       </c>
@@ -3758,7 +3767,7 @@
       <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.25"/>
   <cols>
     <col min="1" max="1" width="14.375" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20" style="2" bestFit="1" customWidth="1"/>
@@ -3767,7 +3776,7 @@
     <col min="5" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -3778,7 +3787,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2" s="40" t="s">
         <v>17</v>
       </c>
@@ -3787,21 +3796,21 @@
       </c>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3" s="40"/>
       <c r="B3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3">
       <c r="A4" s="40"/>
       <c r="B4" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:3" ht="51.75" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="51.75">
       <c r="A5" s="40"/>
       <c r="B5" s="1" t="s">
         <v>14</v>
@@ -3810,7 +3819,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="34.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="34.5">
       <c r="A6" s="40"/>
       <c r="B6" s="1" t="s">
         <v>16</v>
@@ -3819,14 +3828,14 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3">
       <c r="A7" s="40"/>
       <c r="B7" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3">
       <c r="A8" s="40"/>
       <c r="B8" s="1" t="s">
         <v>21</v>
@@ -3835,18 +3844,18 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
     </row>
-    <row r="11" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" s="3" customFormat="1"/>
+    <row r="12" spans="1:3" s="3" customFormat="1">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -3857,7 +3866,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3">
       <c r="A13" s="40" t="s">
         <v>18</v>
       </c>
@@ -3866,116 +3875,116 @@
       </c>
       <c r="C13" s="1"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3">
       <c r="A14" s="40"/>
       <c r="B14" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C14" s="1"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3">
       <c r="A15" s="40"/>
       <c r="B15" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C15" s="1"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3">
       <c r="A16" s="40"/>
       <c r="B16" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C16" s="1"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3">
       <c r="A17" s="40"/>
       <c r="B17" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C17" s="1"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3">
       <c r="A18" s="40"/>
       <c r="B18" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C18" s="1"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3">
       <c r="A19" s="40"/>
       <c r="B19" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C19" s="1"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3">
       <c r="A20" s="40"/>
       <c r="B20" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C20" s="1"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
     </row>
-    <row r="35" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="35" ht="16.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A13:A20"/>
@@ -3995,13 +4004,13 @@
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="46.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="46.75" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="22.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="78.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2">
       <c r="A1" s="24" t="s">
         <v>78</v>
       </c>
@@ -4009,7 +4018,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="27">
       <c r="A2" s="23" t="s">
         <v>94</v>
       </c>
@@ -4017,7 +4026,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2">
       <c r="A3" s="41" t="s">
         <v>92</v>
       </c>
@@ -4025,13 +4034,13 @@
         <v>91</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="28.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="27">
       <c r="A4" s="41"/>
       <c r="B4" s="23" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2">
       <c r="A5" s="23" t="s">
         <v>89</v>
       </c>
@@ -4039,7 +4048,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2">
       <c r="A6" s="23" t="s">
         <v>87</v>
       </c>
@@ -4047,7 +4056,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="28.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" ht="27">
       <c r="A7" s="23" t="s">
         <v>85</v>
       </c>
@@ -4055,7 +4064,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="42.75" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" ht="40.5">
       <c r="A8" s="23" t="s">
         <v>83</v>
       </c>
@@ -4063,7 +4072,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2">
       <c r="A9" s="23" t="s">
         <v>6</v>
       </c>
@@ -4071,7 +4080,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="28.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" ht="27">
       <c r="A10" s="23" t="s">
         <v>80</v>
       </c>
@@ -4097,7 +4106,7 @@
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="18" style="20" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" style="20" bestFit="1" customWidth="1"/>
@@ -4105,7 +4114,7 @@
     <col min="4" max="16384" width="9" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" customFormat="1" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" customFormat="1" ht="26.25">
       <c r="A1" s="38" t="s">
         <v>51</v>
       </c>
@@ -4117,7 +4126,7 @@
       <c r="G1" s="38"/>
       <c r="H1" s="38"/>
     </row>
-    <row r="2" spans="1:8" customFormat="1" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" customFormat="1" ht="26.25">
       <c r="A2" s="38" t="s">
         <v>58</v>
       </c>
@@ -4129,7 +4138,7 @@
       <c r="G2" s="19"/>
       <c r="H2" s="19"/>
     </row>
-    <row r="3" spans="1:8" customFormat="1" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" customFormat="1" ht="26.25">
       <c r="A3" s="19" t="s">
         <v>52</v>
       </c>
@@ -4141,7 +4150,7 @@
       <c r="G3" s="19"/>
       <c r="H3" s="19"/>
     </row>
-    <row r="4" spans="1:8" customFormat="1" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" customFormat="1" ht="26.25">
       <c r="A4" s="19"/>
       <c r="B4" s="19"/>
       <c r="C4" s="19"/>
@@ -4151,7 +4160,7 @@
       <c r="G4" s="19"/>
       <c r="H4" s="19"/>
     </row>
-    <row r="5" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="17.25">
       <c r="A5" s="22" t="s">
         <v>78</v>
       </c>
@@ -4165,7 +4174,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="42.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="40.5">
       <c r="A6" s="21" t="s">
         <v>72</v>
       </c>
@@ -4175,7 +4184,7 @@
       </c>
       <c r="D6" s="22"/>
     </row>
-    <row r="7" spans="1:8" ht="42.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="40.5">
       <c r="A7" s="21" t="s">
         <v>77</v>
       </c>
@@ -4185,7 +4194,7 @@
       </c>
       <c r="D7" s="22"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="27">
       <c r="A8" s="21" t="s">
         <v>75</v>
       </c>
@@ -4193,7 +4202,7 @@
       <c r="C8" s="21"/>
       <c r="D8" s="22"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8">
       <c r="A9" s="21" t="s">
         <v>74</v>
       </c>
@@ -4201,13 +4210,13 @@
       <c r="C9" s="21"/>
       <c r="D9" s="22"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8">
       <c r="A10" s="25"/>
       <c r="B10" s="25"/>
       <c r="C10" s="25"/>
       <c r="D10" s="28"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8">
       <c r="A11" s="21" t="s">
         <v>73</v>
       </c>
@@ -4215,13 +4224,13 @@
       <c r="C11" s="21"/>
       <c r="D11" s="22"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8">
       <c r="A12" s="25"/>
       <c r="B12" s="25"/>
       <c r="C12" s="25"/>
       <c r="D12" s="28"/>
     </row>
-    <row r="13" spans="1:8" ht="34.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="34.5">
       <c r="A13" s="1" t="s">
         <v>23</v>
       </c>
@@ -4235,7 +4244,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="28.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="27">
       <c r="A14" s="21" t="s">
         <v>70</v>
       </c>
@@ -4249,7 +4258,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="28.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="27">
       <c r="A15" s="21" t="s">
         <v>68</v>
       </c>
@@ -4263,13 +4272,13 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="17.25">
       <c r="A16" s="25"/>
       <c r="B16" s="26"/>
       <c r="C16" s="25"/>
       <c r="D16" s="27"/>
     </row>
-    <row r="17" spans="1:4" ht="57" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="67.5">
       <c r="A17" s="21" t="s">
         <v>66</v>
       </c>
@@ -4283,7 +4292,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="17.25">
       <c r="A18" s="21" t="s">
         <v>95</v>
       </c>
@@ -4297,13 +4306,13 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" ht="17.25">
       <c r="A19" s="25"/>
       <c r="B19" s="26"/>
       <c r="C19" s="25"/>
       <c r="D19" s="27"/>
     </row>
-    <row r="20" spans="1:4" ht="99.75" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" ht="94.5">
       <c r="A20" s="21" t="s">
         <v>65</v>
       </c>
@@ -4315,7 +4324,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="57" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" ht="54">
       <c r="A21" s="21" t="s">
         <v>64</v>
       </c>
@@ -4347,7 +4356,7 @@
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="41.125" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="41.125" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="9.875" customWidth="1"/>
     <col min="2" max="2" width="18.625" bestFit="1" customWidth="1"/>
@@ -4356,27 +4365,27 @@
     <col min="5" max="5" width="36.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:5">
       <c r="B1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:5">
       <c r="B2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:5">
       <c r="B3" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:5">
       <c r="B4" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:5">
       <c r="B6" s="33" t="s">
         <v>62</v>
       </c>
@@ -4390,7 +4399,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="7" spans="2:5" ht="297" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:5" ht="297">
       <c r="B7" s="34" t="s">
         <v>138</v>
       </c>
@@ -4404,7 +4413,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:5">
       <c r="B8" s="30" t="s">
         <v>103</v>
       </c>
@@ -4418,7 +4427,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:5">
       <c r="B9" s="33"/>
       <c r="C9" s="33"/>
       <c r="D9" s="33"/>
@@ -4426,49 +4435,49 @@
         <v>104</v>
       </c>
     </row>
-    <row r="10" spans="2:5" ht="18" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:5" ht="18.75">
       <c r="E10" s="32"/>
     </row>
-    <row r="11" spans="2:5" ht="18" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:5" ht="18.75">
       <c r="E11" s="32"/>
     </row>
-    <row r="12" spans="2:5" ht="18" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:5" ht="18.75">
       <c r="E12" s="32"/>
     </row>
-    <row r="13" spans="2:5" ht="18" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:5" ht="18.75">
       <c r="E13" s="32"/>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:5">
       <c r="E14" s="31"/>
     </row>
-    <row r="15" spans="2:5" ht="18" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:5" ht="18.75">
       <c r="E15" s="32"/>
     </row>
-    <row r="16" spans="2:5" ht="18" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:5" ht="18.75">
       <c r="E16" s="32"/>
     </row>
-    <row r="17" spans="5:5" ht="18" x14ac:dyDescent="0.3">
+    <row r="17" spans="5:5" ht="18.75">
       <c r="E17" s="32"/>
     </row>
-    <row r="18" spans="5:5" ht="18" x14ac:dyDescent="0.3">
+    <row r="18" spans="5:5" ht="18.75">
       <c r="E18" s="32"/>
     </row>
-    <row r="19" spans="5:5" ht="18" x14ac:dyDescent="0.3">
+    <row r="19" spans="5:5" ht="18.75">
       <c r="E19" s="32"/>
     </row>
-    <row r="20" spans="5:5" ht="18" x14ac:dyDescent="0.3">
+    <row r="20" spans="5:5" ht="18.75">
       <c r="E20" s="32"/>
     </row>
-    <row r="21" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="5:5">
       <c r="E21" s="31"/>
     </row>
-    <row r="22" spans="5:5" ht="18" x14ac:dyDescent="0.3">
+    <row r="22" spans="5:5" ht="18.75">
       <c r="E22" s="32"/>
     </row>
-    <row r="23" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="5:5">
       <c r="E23" s="31"/>
     </row>
-    <row r="24" spans="5:5" ht="18" x14ac:dyDescent="0.3">
+    <row r="24" spans="5:5" ht="18.75">
       <c r="E24" s="32"/>
     </row>
   </sheetData>
@@ -4486,7 +4495,7 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.375" bestFit="1" customWidth="1"/>
@@ -4495,22 +4504,22 @@
     <col min="6" max="6" width="54.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6">
       <c r="B2" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6">
       <c r="B3" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6">
       <c r="B4" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6">
       <c r="A6" s="37"/>
       <c r="B6" s="4" t="s">
         <v>115</v>
@@ -4528,7 +4537,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="198" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="198">
       <c r="A7" s="37"/>
       <c r="B7" s="29" t="s">
         <v>110</v>
@@ -4546,7 +4555,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="82.5">
       <c r="A8" s="37"/>
       <c r="B8" s="29" t="s">
         <v>111</v>
@@ -4564,7 +4573,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="165" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="165">
       <c r="A9" s="37"/>
       <c r="B9" s="4" t="s">
         <v>112</v>
@@ -4582,7 +4591,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="148.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="148.5">
       <c r="A10" s="37"/>
       <c r="B10" s="4" t="s">
         <v>113</v>
@@ -4598,7 +4607,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="82.5">
       <c r="A11" s="37"/>
       <c r="B11" s="4" t="s">
         <v>114</v>

--- a/Vue20200516/vue01docs/Vue정리-20200515.xlsx
+++ b/Vue20200516/vue01docs/Vue정리-20200515.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TIS20200515\TIS20_05-06\Vue20200516\vue01docs\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8100"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="24240" windowHeight="12780"/>
   </bookViews>
   <sheets>
     <sheet name="용어" sheetId="4" r:id="rId1"/>
@@ -20,7 +15,6 @@
     <sheet name="Vue상태관리" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="145621"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -964,7 +958,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="16">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1301,9 +1295,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -3307,7 +3298,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3342,7 +3333,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3557,7 +3548,7 @@
       <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
@@ -3567,7 +3558,7 @@
     <col min="8" max="9" width="10.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="26.25">
+    <row r="1" spans="1:9" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A1" s="38" t="s">
         <v>51</v>
       </c>
@@ -3580,7 +3571,7 @@
       <c r="H1" s="38"/>
       <c r="I1" s="5"/>
     </row>
-    <row r="2" spans="1:9" ht="26.25">
+    <row r="2" spans="1:9" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A2" s="38" t="s">
         <v>50</v>
       </c>
@@ -3593,7 +3584,7 @@
       <c r="H2" s="10"/>
       <c r="I2" s="5"/>
     </row>
-    <row r="3" spans="1:9" ht="26.25">
+    <row r="3" spans="1:9" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>52</v>
       </c>
@@ -3606,7 +3597,7 @@
       <c r="H3" s="10"/>
       <c r="I3" s="5"/>
     </row>
-    <row r="4" spans="1:9" ht="26.25">
+    <row r="4" spans="1:9" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -3614,7 +3605,7 @@
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>27</v>
       </c>
@@ -3622,7 +3613,7 @@
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="39" t="s">
         <v>28</v>
       </c>
@@ -3638,7 +3629,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>30</v>
       </c>
@@ -3658,7 +3649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>32</v>
       </c>
@@ -3678,7 +3669,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>49</v>
       </c>
@@ -3694,7 +3685,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="7"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
@@ -3705,7 +3696,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>34</v>
       </c>
@@ -3718,7 +3709,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>35</v>
       </c>
@@ -3729,7 +3720,7 @@
       <c r="G12" s="17"/>
       <c r="H12" s="18"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>37</v>
       </c>
@@ -3767,7 +3758,7 @@
       <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.375" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20" style="2" bestFit="1" customWidth="1"/>
@@ -3776,7 +3767,7 @@
     <col min="5" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -3787,7 +3778,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="40" t="s">
         <v>17</v>
       </c>
@@ -3796,21 +3787,21 @@
       </c>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="40"/>
       <c r="B3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="40"/>
       <c r="B4" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:3" ht="51.75">
+    <row r="5" spans="1:3" ht="51.75" x14ac:dyDescent="0.3">
       <c r="A5" s="40"/>
       <c r="B5" s="1" t="s">
         <v>14</v>
@@ -3819,7 +3810,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="34.5">
+    <row r="6" spans="1:3" ht="34.5" x14ac:dyDescent="0.3">
       <c r="A6" s="40"/>
       <c r="B6" s="1" t="s">
         <v>16</v>
@@ -3828,14 +3819,14 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="40"/>
       <c r="B7" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="40"/>
       <c r="B8" s="1" t="s">
         <v>21</v>
@@ -3844,18 +3835,18 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
     </row>
-    <row r="11" spans="1:3" s="3" customFormat="1"/>
-    <row r="12" spans="1:3" s="3" customFormat="1">
+    <row r="11" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -3866,7 +3857,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="40" t="s">
         <v>18</v>
       </c>
@@ -3875,116 +3866,116 @@
       </c>
       <c r="C13" s="1"/>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="40"/>
       <c r="B14" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C14" s="1"/>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="40"/>
       <c r="B15" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C15" s="1"/>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="40"/>
       <c r="B16" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C16" s="1"/>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="40"/>
       <c r="B17" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C17" s="1"/>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="40"/>
       <c r="B18" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C18" s="1"/>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="40"/>
       <c r="B19" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C19" s="1"/>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="40"/>
       <c r="B20" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C20" s="1"/>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
     </row>
-    <row r="35" ht="16.5" customHeight="1"/>
+    <row r="35" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A13:A20"/>
@@ -4004,13 +3995,13 @@
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="46.75" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="46.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="78.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="24" t="s">
         <v>78</v>
       </c>
@@ -4018,7 +4009,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="27">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="23" t="s">
         <v>94</v>
       </c>
@@ -4026,7 +4017,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="41" t="s">
         <v>92</v>
       </c>
@@ -4034,13 +4025,13 @@
         <v>91</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="27">
+    <row r="4" spans="1:2" ht="28.5" x14ac:dyDescent="0.3">
       <c r="A4" s="41"/>
       <c r="B4" s="23" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="23" t="s">
         <v>89</v>
       </c>
@@ -4048,7 +4039,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="23" t="s">
         <v>87</v>
       </c>
@@ -4056,7 +4047,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="27">
+    <row r="7" spans="1:2" ht="28.5" x14ac:dyDescent="0.3">
       <c r="A7" s="23" t="s">
         <v>85</v>
       </c>
@@ -4064,7 +4055,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="40.5">
+    <row r="8" spans="1:2" ht="42.75" x14ac:dyDescent="0.3">
       <c r="A8" s="23" t="s">
         <v>83</v>
       </c>
@@ -4072,7 +4063,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="23" t="s">
         <v>6</v>
       </c>
@@ -4080,7 +4071,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="27">
+    <row r="10" spans="1:2" ht="28.5" x14ac:dyDescent="0.3">
       <c r="A10" s="23" t="s">
         <v>80</v>
       </c>
@@ -4106,7 +4097,7 @@
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18" style="20" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" style="20" bestFit="1" customWidth="1"/>
@@ -4114,7 +4105,7 @@
     <col min="4" max="16384" width="9" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" customFormat="1" ht="26.25">
+    <row r="1" spans="1:8" customFormat="1" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A1" s="38" t="s">
         <v>51</v>
       </c>
@@ -4126,7 +4117,7 @@
       <c r="G1" s="38"/>
       <c r="H1" s="38"/>
     </row>
-    <row r="2" spans="1:8" customFormat="1" ht="26.25">
+    <row r="2" spans="1:8" customFormat="1" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A2" s="38" t="s">
         <v>58</v>
       </c>
@@ -4138,7 +4129,7 @@
       <c r="G2" s="19"/>
       <c r="H2" s="19"/>
     </row>
-    <row r="3" spans="1:8" customFormat="1" ht="26.25">
+    <row r="3" spans="1:8" customFormat="1" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A3" s="19" t="s">
         <v>52</v>
       </c>
@@ -4150,7 +4141,7 @@
       <c r="G3" s="19"/>
       <c r="H3" s="19"/>
     </row>
-    <row r="4" spans="1:8" customFormat="1" ht="26.25">
+    <row r="4" spans="1:8" customFormat="1" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A4" s="19"/>
       <c r="B4" s="19"/>
       <c r="C4" s="19"/>
@@ -4160,7 +4151,7 @@
       <c r="G4" s="19"/>
       <c r="H4" s="19"/>
     </row>
-    <row r="5" spans="1:8" ht="17.25">
+    <row r="5" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A5" s="22" t="s">
         <v>78</v>
       </c>
@@ -4174,7 +4165,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="40.5">
+    <row r="6" spans="1:8" ht="42.75" x14ac:dyDescent="0.3">
       <c r="A6" s="21" t="s">
         <v>72</v>
       </c>
@@ -4184,7 +4175,7 @@
       </c>
       <c r="D6" s="22"/>
     </row>
-    <row r="7" spans="1:8" ht="40.5">
+    <row r="7" spans="1:8" ht="42.75" x14ac:dyDescent="0.3">
       <c r="A7" s="21" t="s">
         <v>77</v>
       </c>
@@ -4194,7 +4185,7 @@
       </c>
       <c r="D7" s="22"/>
     </row>
-    <row r="8" spans="1:8" ht="27">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="21" t="s">
         <v>75</v>
       </c>
@@ -4202,7 +4193,7 @@
       <c r="C8" s="21"/>
       <c r="D8" s="22"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="21" t="s">
         <v>74</v>
       </c>
@@ -4210,13 +4201,13 @@
       <c r="C9" s="21"/>
       <c r="D9" s="22"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="25"/>
       <c r="B10" s="25"/>
       <c r="C10" s="25"/>
       <c r="D10" s="28"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="21" t="s">
         <v>73</v>
       </c>
@@ -4224,13 +4215,13 @@
       <c r="C11" s="21"/>
       <c r="D11" s="22"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="25"/>
       <c r="B12" s="25"/>
       <c r="C12" s="25"/>
       <c r="D12" s="28"/>
     </row>
-    <row r="13" spans="1:8" ht="34.5">
+    <row r="13" spans="1:8" ht="34.5" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>23</v>
       </c>
@@ -4244,7 +4235,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="27">
+    <row r="14" spans="1:8" ht="28.5" x14ac:dyDescent="0.3">
       <c r="A14" s="21" t="s">
         <v>70</v>
       </c>
@@ -4258,7 +4249,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="27">
+    <row r="15" spans="1:8" ht="28.5" x14ac:dyDescent="0.3">
       <c r="A15" s="21" t="s">
         <v>68</v>
       </c>
@@ -4272,13 +4263,13 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="17.25">
+    <row r="16" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A16" s="25"/>
       <c r="B16" s="26"/>
       <c r="C16" s="25"/>
       <c r="D16" s="27"/>
     </row>
-    <row r="17" spans="1:4" ht="67.5">
+    <row r="17" spans="1:4" ht="57" x14ac:dyDescent="0.3">
       <c r="A17" s="21" t="s">
         <v>66</v>
       </c>
@@ -4292,7 +4283,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="17.25">
+    <row r="18" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A18" s="21" t="s">
         <v>95</v>
       </c>
@@ -4306,13 +4297,13 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="17.25">
+    <row r="19" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A19" s="25"/>
       <c r="B19" s="26"/>
       <c r="C19" s="25"/>
       <c r="D19" s="27"/>
     </row>
-    <row r="20" spans="1:4" ht="94.5">
+    <row r="20" spans="1:4" ht="99.75" x14ac:dyDescent="0.3">
       <c r="A20" s="21" t="s">
         <v>65</v>
       </c>
@@ -4324,7 +4315,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="54">
+    <row r="21" spans="1:4" ht="57" x14ac:dyDescent="0.3">
       <c r="A21" s="21" t="s">
         <v>64</v>
       </c>
@@ -4356,7 +4347,7 @@
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="41.125" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="41.125" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.875" customWidth="1"/>
     <col min="2" max="2" width="18.625" bestFit="1" customWidth="1"/>
@@ -4365,27 +4356,27 @@
     <col min="5" max="5" width="36.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5">
+    <row r="1" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="2" spans="2:5">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="2:5">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="4" spans="2:5">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="6" spans="2:5">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B6" s="33" t="s">
         <v>62</v>
       </c>
@@ -4399,7 +4390,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="7" spans="2:5" ht="297">
+    <row r="7" spans="2:5" ht="297" x14ac:dyDescent="0.3">
       <c r="B7" s="34" t="s">
         <v>138</v>
       </c>
@@ -4413,7 +4404,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="8" spans="2:5">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B8" s="30" t="s">
         <v>103</v>
       </c>
@@ -4427,7 +4418,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="9" spans="2:5">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B9" s="33"/>
       <c r="C9" s="33"/>
       <c r="D9" s="33"/>
@@ -4435,49 +4426,49 @@
         <v>104</v>
       </c>
     </row>
-    <row r="10" spans="2:5" ht="18.75">
+    <row r="10" spans="2:5" ht="18" x14ac:dyDescent="0.3">
       <c r="E10" s="32"/>
     </row>
-    <row r="11" spans="2:5" ht="18.75">
+    <row r="11" spans="2:5" ht="18" x14ac:dyDescent="0.3">
       <c r="E11" s="32"/>
     </row>
-    <row r="12" spans="2:5" ht="18.75">
+    <row r="12" spans="2:5" ht="18" x14ac:dyDescent="0.3">
       <c r="E12" s="32"/>
     </row>
-    <row r="13" spans="2:5" ht="18.75">
+    <row r="13" spans="2:5" ht="18" x14ac:dyDescent="0.3">
       <c r="E13" s="32"/>
     </row>
-    <row r="14" spans="2:5">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
       <c r="E14" s="31"/>
     </row>
-    <row r="15" spans="2:5" ht="18.75">
+    <row r="15" spans="2:5" ht="18" x14ac:dyDescent="0.3">
       <c r="E15" s="32"/>
     </row>
-    <row r="16" spans="2:5" ht="18.75">
+    <row r="16" spans="2:5" ht="18" x14ac:dyDescent="0.3">
       <c r="E16" s="32"/>
     </row>
-    <row r="17" spans="5:5" ht="18.75">
+    <row r="17" spans="5:5" ht="18" x14ac:dyDescent="0.3">
       <c r="E17" s="32"/>
     </row>
-    <row r="18" spans="5:5" ht="18.75">
+    <row r="18" spans="5:5" ht="18" x14ac:dyDescent="0.3">
       <c r="E18" s="32"/>
     </row>
-    <row r="19" spans="5:5" ht="18.75">
+    <row r="19" spans="5:5" ht="18" x14ac:dyDescent="0.3">
       <c r="E19" s="32"/>
     </row>
-    <row r="20" spans="5:5" ht="18.75">
+    <row r="20" spans="5:5" ht="18" x14ac:dyDescent="0.3">
       <c r="E20" s="32"/>
     </row>
-    <row r="21" spans="5:5">
+    <row r="21" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E21" s="31"/>
     </row>
-    <row r="22" spans="5:5" ht="18.75">
+    <row r="22" spans="5:5" ht="18" x14ac:dyDescent="0.3">
       <c r="E22" s="32"/>
     </row>
-    <row r="23" spans="5:5">
+    <row r="23" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E23" s="31"/>
     </row>
-    <row r="24" spans="5:5" ht="18.75">
+    <row r="24" spans="5:5" ht="18" x14ac:dyDescent="0.3">
       <c r="E24" s="32"/>
     </row>
   </sheetData>
@@ -4495,7 +4486,7 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.375" bestFit="1" customWidth="1"/>
@@ -4504,22 +4495,22 @@
     <col min="6" max="6" width="54.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="37"/>
       <c r="B6" s="4" t="s">
         <v>115</v>
@@ -4537,7 +4528,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="198">
+    <row r="7" spans="1:6" ht="198" x14ac:dyDescent="0.3">
       <c r="A7" s="37"/>
       <c r="B7" s="29" t="s">
         <v>110</v>
@@ -4555,7 +4546,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="82.5">
+    <row r="8" spans="1:6" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A8" s="37"/>
       <c r="B8" s="29" t="s">
         <v>111</v>
@@ -4573,7 +4564,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="165">
+    <row r="9" spans="1:6" ht="165" x14ac:dyDescent="0.3">
       <c r="A9" s="37"/>
       <c r="B9" s="4" t="s">
         <v>112</v>
@@ -4591,7 +4582,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="148.5">
+    <row r="10" spans="1:6" ht="148.5" x14ac:dyDescent="0.3">
       <c r="A10" s="37"/>
       <c r="B10" s="4" t="s">
         <v>113</v>
@@ -4607,7 +4598,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="82.5">
+    <row r="11" spans="1:6" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A11" s="37"/>
       <c r="B11" s="4" t="s">
         <v>114</v>

--- a/Vue20200516/vue01docs/Vue정리-20200515.xlsx
+++ b/Vue20200516/vue01docs/Vue정리-20200515.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TIS20200515\TIS20_05-06\Vue20200516\vue01docs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="360" yWindow="30" windowWidth="24240" windowHeight="12780"/>
   </bookViews>
@@ -15,6 +20,7 @@
     <sheet name="Vue상태관리" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="145621"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -958,7 +964,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1295,6 +1301,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -3298,7 +3307,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3333,7 +3342,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3548,7 +3557,7 @@
       <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="11.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
@@ -3558,7 +3567,7 @@
     <col min="8" max="9" width="10.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="26.25">
       <c r="A1" s="38" t="s">
         <v>51</v>
       </c>
@@ -3571,7 +3580,7 @@
       <c r="H1" s="38"/>
       <c r="I1" s="5"/>
     </row>
-    <row r="2" spans="1:9" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="26.25">
       <c r="A2" s="38" t="s">
         <v>50</v>
       </c>
@@ -3584,7 +3593,7 @@
       <c r="H2" s="10"/>
       <c r="I2" s="5"/>
     </row>
-    <row r="3" spans="1:9" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="26.25">
       <c r="A3" s="10" t="s">
         <v>52</v>
       </c>
@@ -3597,7 +3606,7 @@
       <c r="H3" s="10"/>
       <c r="I3" s="5"/>
     </row>
-    <row r="4" spans="1:9" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="26.25">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -3605,7 +3614,7 @@
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9">
       <c r="A5" s="4" t="s">
         <v>27</v>
       </c>
@@ -3613,7 +3622,7 @@
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9">
       <c r="A6" s="39" t="s">
         <v>28</v>
       </c>
@@ -3629,7 +3638,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9">
       <c r="A7" s="6" t="s">
         <v>30</v>
       </c>
@@ -3649,7 +3658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9">
       <c r="A8" s="6" t="s">
         <v>32</v>
       </c>
@@ -3669,7 +3678,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9">
       <c r="A9" s="6" t="s">
         <v>49</v>
       </c>
@@ -3685,7 +3694,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9">
       <c r="A10" s="7"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
@@ -3696,7 +3705,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9">
       <c r="A11" s="6" t="s">
         <v>34</v>
       </c>
@@ -3709,7 +3718,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9">
       <c r="A12" s="6" t="s">
         <v>35</v>
       </c>
@@ -3720,7 +3729,7 @@
       <c r="G12" s="17"/>
       <c r="H12" s="18"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9">
       <c r="A13" s="6" t="s">
         <v>37</v>
       </c>
@@ -3758,7 +3767,7 @@
       <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.25"/>
   <cols>
     <col min="1" max="1" width="14.375" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20" style="2" bestFit="1" customWidth="1"/>
@@ -3767,7 +3776,7 @@
     <col min="5" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -3778,7 +3787,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2" s="40" t="s">
         <v>17</v>
       </c>
@@ -3787,21 +3796,21 @@
       </c>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3" s="40"/>
       <c r="B3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3">
       <c r="A4" s="40"/>
       <c r="B4" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:3" ht="51.75" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="51.75">
       <c r="A5" s="40"/>
       <c r="B5" s="1" t="s">
         <v>14</v>
@@ -3810,7 +3819,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="34.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="34.5">
       <c r="A6" s="40"/>
       <c r="B6" s="1" t="s">
         <v>16</v>
@@ -3819,14 +3828,14 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3">
       <c r="A7" s="40"/>
       <c r="B7" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3">
       <c r="A8" s="40"/>
       <c r="B8" s="1" t="s">
         <v>21</v>
@@ -3835,18 +3844,18 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
     </row>
-    <row r="11" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" s="3" customFormat="1"/>
+    <row r="12" spans="1:3" s="3" customFormat="1">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -3857,7 +3866,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3">
       <c r="A13" s="40" t="s">
         <v>18</v>
       </c>
@@ -3866,116 +3875,116 @@
       </c>
       <c r="C13" s="1"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3">
       <c r="A14" s="40"/>
       <c r="B14" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C14" s="1"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3">
       <c r="A15" s="40"/>
       <c r="B15" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C15" s="1"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3">
       <c r="A16" s="40"/>
       <c r="B16" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C16" s="1"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3">
       <c r="A17" s="40"/>
       <c r="B17" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C17" s="1"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3">
       <c r="A18" s="40"/>
       <c r="B18" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C18" s="1"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3">
       <c r="A19" s="40"/>
       <c r="B19" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C19" s="1"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3">
       <c r="A20" s="40"/>
       <c r="B20" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C20" s="1"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
     </row>
-    <row r="35" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="35" ht="16.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A13:A20"/>
@@ -3995,13 +4004,13 @@
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="46.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="46.75" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="22.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="78.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2">
       <c r="A1" s="24" t="s">
         <v>78</v>
       </c>
@@ -4009,7 +4018,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="27">
       <c r="A2" s="23" t="s">
         <v>94</v>
       </c>
@@ -4017,7 +4026,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2">
       <c r="A3" s="41" t="s">
         <v>92</v>
       </c>
@@ -4025,13 +4034,13 @@
         <v>91</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="28.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="27">
       <c r="A4" s="41"/>
       <c r="B4" s="23" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2">
       <c r="A5" s="23" t="s">
         <v>89</v>
       </c>
@@ -4039,7 +4048,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2">
       <c r="A6" s="23" t="s">
         <v>87</v>
       </c>
@@ -4047,7 +4056,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="28.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" ht="27">
       <c r="A7" s="23" t="s">
         <v>85</v>
       </c>
@@ -4055,7 +4064,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="42.75" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" ht="40.5">
       <c r="A8" s="23" t="s">
         <v>83</v>
       </c>
@@ -4063,7 +4072,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2">
       <c r="A9" s="23" t="s">
         <v>6</v>
       </c>
@@ -4071,7 +4080,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="28.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" ht="27">
       <c r="A10" s="23" t="s">
         <v>80</v>
       </c>
@@ -4097,7 +4106,7 @@
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="18" style="20" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" style="20" bestFit="1" customWidth="1"/>
@@ -4105,7 +4114,7 @@
     <col min="4" max="16384" width="9" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" customFormat="1" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" customFormat="1" ht="26.25">
       <c r="A1" s="38" t="s">
         <v>51</v>
       </c>
@@ -4117,7 +4126,7 @@
       <c r="G1" s="38"/>
       <c r="H1" s="38"/>
     </row>
-    <row r="2" spans="1:8" customFormat="1" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" customFormat="1" ht="26.25">
       <c r="A2" s="38" t="s">
         <v>58</v>
       </c>
@@ -4129,7 +4138,7 @@
       <c r="G2" s="19"/>
       <c r="H2" s="19"/>
     </row>
-    <row r="3" spans="1:8" customFormat="1" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" customFormat="1" ht="26.25">
       <c r="A3" s="19" t="s">
         <v>52</v>
       </c>
@@ -4141,7 +4150,7 @@
       <c r="G3" s="19"/>
       <c r="H3" s="19"/>
     </row>
-    <row r="4" spans="1:8" customFormat="1" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" customFormat="1" ht="26.25">
       <c r="A4" s="19"/>
       <c r="B4" s="19"/>
       <c r="C4" s="19"/>
@@ -4151,7 +4160,7 @@
       <c r="G4" s="19"/>
       <c r="H4" s="19"/>
     </row>
-    <row r="5" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="17.25">
       <c r="A5" s="22" t="s">
         <v>78</v>
       </c>
@@ -4165,7 +4174,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="42.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="40.5">
       <c r="A6" s="21" t="s">
         <v>72</v>
       </c>
@@ -4175,7 +4184,7 @@
       </c>
       <c r="D6" s="22"/>
     </row>
-    <row r="7" spans="1:8" ht="42.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="40.5">
       <c r="A7" s="21" t="s">
         <v>77</v>
       </c>
@@ -4185,7 +4194,7 @@
       </c>
       <c r="D7" s="22"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="27">
       <c r="A8" s="21" t="s">
         <v>75</v>
       </c>
@@ -4193,7 +4202,7 @@
       <c r="C8" s="21"/>
       <c r="D8" s="22"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8">
       <c r="A9" s="21" t="s">
         <v>74</v>
       </c>
@@ -4201,13 +4210,13 @@
       <c r="C9" s="21"/>
       <c r="D9" s="22"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8">
       <c r="A10" s="25"/>
       <c r="B10" s="25"/>
       <c r="C10" s="25"/>
       <c r="D10" s="28"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8">
       <c r="A11" s="21" t="s">
         <v>73</v>
       </c>
@@ -4215,13 +4224,13 @@
       <c r="C11" s="21"/>
       <c r="D11" s="22"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8">
       <c r="A12" s="25"/>
       <c r="B12" s="25"/>
       <c r="C12" s="25"/>
       <c r="D12" s="28"/>
     </row>
-    <row r="13" spans="1:8" ht="34.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="34.5">
       <c r="A13" s="1" t="s">
         <v>23</v>
       </c>
@@ -4235,7 +4244,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="28.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="27">
       <c r="A14" s="21" t="s">
         <v>70</v>
       </c>
@@ -4249,7 +4258,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="28.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="27">
       <c r="A15" s="21" t="s">
         <v>68</v>
       </c>
@@ -4263,13 +4272,13 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="17.25">
       <c r="A16" s="25"/>
       <c r="B16" s="26"/>
       <c r="C16" s="25"/>
       <c r="D16" s="27"/>
     </row>
-    <row r="17" spans="1:4" ht="57" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="67.5">
       <c r="A17" s="21" t="s">
         <v>66</v>
       </c>
@@ -4283,7 +4292,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="17.25">
       <c r="A18" s="21" t="s">
         <v>95</v>
       </c>
@@ -4297,13 +4306,13 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" ht="17.25">
       <c r="A19" s="25"/>
       <c r="B19" s="26"/>
       <c r="C19" s="25"/>
       <c r="D19" s="27"/>
     </row>
-    <row r="20" spans="1:4" ht="99.75" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" ht="94.5">
       <c r="A20" s="21" t="s">
         <v>65</v>
       </c>
@@ -4315,7 +4324,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="57" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" ht="54">
       <c r="A21" s="21" t="s">
         <v>64</v>
       </c>
@@ -4347,7 +4356,7 @@
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="41.125" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="41.125" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="9.875" customWidth="1"/>
     <col min="2" max="2" width="18.625" bestFit="1" customWidth="1"/>
@@ -4356,27 +4365,27 @@
     <col min="5" max="5" width="36.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:5">
       <c r="B1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:5">
       <c r="B2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:5">
       <c r="B3" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:5">
       <c r="B4" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:5">
       <c r="B6" s="33" t="s">
         <v>62</v>
       </c>
@@ -4390,7 +4399,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="7" spans="2:5" ht="297" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:5" ht="297">
       <c r="B7" s="34" t="s">
         <v>138</v>
       </c>
@@ -4404,7 +4413,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:5">
       <c r="B8" s="30" t="s">
         <v>103</v>
       </c>
@@ -4418,7 +4427,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:5">
       <c r="B9" s="33"/>
       <c r="C9" s="33"/>
       <c r="D9" s="33"/>
@@ -4426,49 +4435,49 @@
         <v>104</v>
       </c>
     </row>
-    <row r="10" spans="2:5" ht="18" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:5" ht="18.75">
       <c r="E10" s="32"/>
     </row>
-    <row r="11" spans="2:5" ht="18" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:5" ht="18.75">
       <c r="E11" s="32"/>
     </row>
-    <row r="12" spans="2:5" ht="18" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:5" ht="18.75">
       <c r="E12" s="32"/>
     </row>
-    <row r="13" spans="2:5" ht="18" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:5" ht="18.75">
       <c r="E13" s="32"/>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:5">
       <c r="E14" s="31"/>
     </row>
-    <row r="15" spans="2:5" ht="18" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:5" ht="18.75">
       <c r="E15" s="32"/>
     </row>
-    <row r="16" spans="2:5" ht="18" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:5" ht="18.75">
       <c r="E16" s="32"/>
     </row>
-    <row r="17" spans="5:5" ht="18" x14ac:dyDescent="0.3">
+    <row r="17" spans="5:5" ht="18.75">
       <c r="E17" s="32"/>
     </row>
-    <row r="18" spans="5:5" ht="18" x14ac:dyDescent="0.3">
+    <row r="18" spans="5:5" ht="18.75">
       <c r="E18" s="32"/>
     </row>
-    <row r="19" spans="5:5" ht="18" x14ac:dyDescent="0.3">
+    <row r="19" spans="5:5" ht="18.75">
       <c r="E19" s="32"/>
     </row>
-    <row r="20" spans="5:5" ht="18" x14ac:dyDescent="0.3">
+    <row r="20" spans="5:5" ht="18.75">
       <c r="E20" s="32"/>
     </row>
-    <row r="21" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="5:5">
       <c r="E21" s="31"/>
     </row>
-    <row r="22" spans="5:5" ht="18" x14ac:dyDescent="0.3">
+    <row r="22" spans="5:5" ht="18.75">
       <c r="E22" s="32"/>
     </row>
-    <row r="23" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="5:5">
       <c r="E23" s="31"/>
     </row>
-    <row r="24" spans="5:5" ht="18" x14ac:dyDescent="0.3">
+    <row r="24" spans="5:5" ht="18.75">
       <c r="E24" s="32"/>
     </row>
   </sheetData>
@@ -4486,7 +4495,7 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.375" bestFit="1" customWidth="1"/>
@@ -4495,22 +4504,22 @@
     <col min="6" max="6" width="54.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6">
       <c r="B2" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6">
       <c r="B3" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6">
       <c r="B4" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6">
       <c r="A6" s="37"/>
       <c r="B6" s="4" t="s">
         <v>115</v>
@@ -4528,7 +4537,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="198" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="198">
       <c r="A7" s="37"/>
       <c r="B7" s="29" t="s">
         <v>110</v>
@@ -4546,7 +4555,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="82.5">
       <c r="A8" s="37"/>
       <c r="B8" s="29" t="s">
         <v>111</v>
@@ -4564,7 +4573,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="165" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="165">
       <c r="A9" s="37"/>
       <c r="B9" s="4" t="s">
         <v>112</v>
@@ -4582,7 +4591,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="148.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="148.5">
       <c r="A10" s="37"/>
       <c r="B10" s="4" t="s">
         <v>113</v>
@@ -4598,7 +4607,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="82.5">
       <c r="A11" s="37"/>
       <c r="B11" s="4" t="s">
         <v>114</v>

--- a/Vue20200516/vue01docs/Vue정리-20200515.xlsx
+++ b/Vue20200516/vue01docs/Vue정리-20200515.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TIS20200515\TIS20_05-06\Vue20200516\vue01docs\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="360" yWindow="30" windowWidth="24240" windowHeight="12780"/>
   </bookViews>
@@ -20,7 +15,6 @@
     <sheet name="Vue상태관리" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="145621"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -964,7 +958,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="16">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1301,9 +1295,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -3307,7 +3298,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3342,7 +3333,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3557,7 +3548,7 @@
       <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
@@ -3567,7 +3558,7 @@
     <col min="8" max="9" width="10.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="26.25">
+    <row r="1" spans="1:9" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A1" s="38" t="s">
         <v>51</v>
       </c>
@@ -3580,7 +3571,7 @@
       <c r="H1" s="38"/>
       <c r="I1" s="5"/>
     </row>
-    <row r="2" spans="1:9" ht="26.25">
+    <row r="2" spans="1:9" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A2" s="38" t="s">
         <v>50</v>
       </c>
@@ -3593,7 +3584,7 @@
       <c r="H2" s="10"/>
       <c r="I2" s="5"/>
     </row>
-    <row r="3" spans="1:9" ht="26.25">
+    <row r="3" spans="1:9" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>52</v>
       </c>
@@ -3606,7 +3597,7 @@
       <c r="H3" s="10"/>
       <c r="I3" s="5"/>
     </row>
-    <row r="4" spans="1:9" ht="26.25">
+    <row r="4" spans="1:9" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -3614,7 +3605,7 @@
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>27</v>
       </c>
@@ -3622,7 +3613,7 @@
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="39" t="s">
         <v>28</v>
       </c>
@@ -3638,7 +3629,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>30</v>
       </c>
@@ -3658,7 +3649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>32</v>
       </c>
@@ -3678,7 +3669,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>49</v>
       </c>
@@ -3694,7 +3685,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="7"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
@@ -3705,7 +3696,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>34</v>
       </c>
@@ -3718,7 +3709,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>35</v>
       </c>
@@ -3729,7 +3720,7 @@
       <c r="G12" s="17"/>
       <c r="H12" s="18"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>37</v>
       </c>
@@ -3767,7 +3758,7 @@
       <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.375" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20" style="2" bestFit="1" customWidth="1"/>
@@ -3776,7 +3767,7 @@
     <col min="5" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -3787,7 +3778,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="40" t="s">
         <v>17</v>
       </c>
@@ -3796,21 +3787,21 @@
       </c>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="40"/>
       <c r="B3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="40"/>
       <c r="B4" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:3" ht="51.75">
+    <row r="5" spans="1:3" ht="51.75" x14ac:dyDescent="0.3">
       <c r="A5" s="40"/>
       <c r="B5" s="1" t="s">
         <v>14</v>
@@ -3819,7 +3810,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="34.5">
+    <row r="6" spans="1:3" ht="34.5" x14ac:dyDescent="0.3">
       <c r="A6" s="40"/>
       <c r="B6" s="1" t="s">
         <v>16</v>
@@ -3828,14 +3819,14 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="40"/>
       <c r="B7" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="40"/>
       <c r="B8" s="1" t="s">
         <v>21</v>
@@ -3844,18 +3835,18 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
     </row>
-    <row r="11" spans="1:3" s="3" customFormat="1"/>
-    <row r="12" spans="1:3" s="3" customFormat="1">
+    <row r="11" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -3866,7 +3857,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="40" t="s">
         <v>18</v>
       </c>
@@ -3875,116 +3866,116 @@
       </c>
       <c r="C13" s="1"/>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="40"/>
       <c r="B14" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C14" s="1"/>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="40"/>
       <c r="B15" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C15" s="1"/>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="40"/>
       <c r="B16" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C16" s="1"/>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="40"/>
       <c r="B17" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C17" s="1"/>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="40"/>
       <c r="B18" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C18" s="1"/>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="40"/>
       <c r="B19" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C19" s="1"/>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="40"/>
       <c r="B20" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C20" s="1"/>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
     </row>
-    <row r="35" ht="16.5" customHeight="1"/>
+    <row r="35" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A13:A20"/>
@@ -4004,13 +3995,13 @@
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="46.75" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="46.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="78.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="24" t="s">
         <v>78</v>
       </c>
@@ -4018,7 +4009,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="27">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="23" t="s">
         <v>94</v>
       </c>
@@ -4026,7 +4017,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="41" t="s">
         <v>92</v>
       </c>
@@ -4034,13 +4025,13 @@
         <v>91</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="27">
+    <row r="4" spans="1:2" ht="28.5" x14ac:dyDescent="0.3">
       <c r="A4" s="41"/>
       <c r="B4" s="23" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="23" t="s">
         <v>89</v>
       </c>
@@ -4048,7 +4039,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="23" t="s">
         <v>87</v>
       </c>
@@ -4056,7 +4047,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="27">
+    <row r="7" spans="1:2" ht="28.5" x14ac:dyDescent="0.3">
       <c r="A7" s="23" t="s">
         <v>85</v>
       </c>
@@ -4064,7 +4055,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="40.5">
+    <row r="8" spans="1:2" ht="42.75" x14ac:dyDescent="0.3">
       <c r="A8" s="23" t="s">
         <v>83</v>
       </c>
@@ -4072,7 +4063,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="23" t="s">
         <v>6</v>
       </c>
@@ -4080,7 +4071,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="27">
+    <row r="10" spans="1:2" ht="28.5" x14ac:dyDescent="0.3">
       <c r="A10" s="23" t="s">
         <v>80</v>
       </c>
@@ -4106,7 +4097,7 @@
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18" style="20" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" style="20" bestFit="1" customWidth="1"/>
@@ -4114,7 +4105,7 @@
     <col min="4" max="16384" width="9" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" customFormat="1" ht="26.25">
+    <row r="1" spans="1:8" customFormat="1" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A1" s="38" t="s">
         <v>51</v>
       </c>
@@ -4126,7 +4117,7 @@
       <c r="G1" s="38"/>
       <c r="H1" s="38"/>
     </row>
-    <row r="2" spans="1:8" customFormat="1" ht="26.25">
+    <row r="2" spans="1:8" customFormat="1" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A2" s="38" t="s">
         <v>58</v>
       </c>
@@ -4138,7 +4129,7 @@
       <c r="G2" s="19"/>
       <c r="H2" s="19"/>
     </row>
-    <row r="3" spans="1:8" customFormat="1" ht="26.25">
+    <row r="3" spans="1:8" customFormat="1" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A3" s="19" t="s">
         <v>52</v>
       </c>
@@ -4150,7 +4141,7 @@
       <c r="G3" s="19"/>
       <c r="H3" s="19"/>
     </row>
-    <row r="4" spans="1:8" customFormat="1" ht="26.25">
+    <row r="4" spans="1:8" customFormat="1" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A4" s="19"/>
       <c r="B4" s="19"/>
       <c r="C4" s="19"/>
@@ -4160,7 +4151,7 @@
       <c r="G4" s="19"/>
       <c r="H4" s="19"/>
     </row>
-    <row r="5" spans="1:8" ht="17.25">
+    <row r="5" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A5" s="22" t="s">
         <v>78</v>
       </c>
@@ -4174,7 +4165,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="40.5">
+    <row r="6" spans="1:8" ht="42.75" x14ac:dyDescent="0.3">
       <c r="A6" s="21" t="s">
         <v>72</v>
       </c>
@@ -4184,7 +4175,7 @@
       </c>
       <c r="D6" s="22"/>
     </row>
-    <row r="7" spans="1:8" ht="40.5">
+    <row r="7" spans="1:8" ht="42.75" x14ac:dyDescent="0.3">
       <c r="A7" s="21" t="s">
         <v>77</v>
       </c>
@@ -4194,7 +4185,7 @@
       </c>
       <c r="D7" s="22"/>
     </row>
-    <row r="8" spans="1:8" ht="27">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="21" t="s">
         <v>75</v>
       </c>
@@ -4202,7 +4193,7 @@
       <c r="C8" s="21"/>
       <c r="D8" s="22"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="21" t="s">
         <v>74</v>
       </c>
@@ -4210,13 +4201,13 @@
       <c r="C9" s="21"/>
       <c r="D9" s="22"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="25"/>
       <c r="B10" s="25"/>
       <c r="C10" s="25"/>
       <c r="D10" s="28"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="21" t="s">
         <v>73</v>
       </c>
@@ -4224,13 +4215,13 @@
       <c r="C11" s="21"/>
       <c r="D11" s="22"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="25"/>
       <c r="B12" s="25"/>
       <c r="C12" s="25"/>
       <c r="D12" s="28"/>
     </row>
-    <row r="13" spans="1:8" ht="34.5">
+    <row r="13" spans="1:8" ht="34.5" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>23</v>
       </c>
@@ -4244,7 +4235,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="27">
+    <row r="14" spans="1:8" ht="28.5" x14ac:dyDescent="0.3">
       <c r="A14" s="21" t="s">
         <v>70</v>
       </c>
@@ -4258,7 +4249,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="27">
+    <row r="15" spans="1:8" ht="28.5" x14ac:dyDescent="0.3">
       <c r="A15" s="21" t="s">
         <v>68</v>
       </c>
@@ -4272,13 +4263,13 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="17.25">
+    <row r="16" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A16" s="25"/>
       <c r="B16" s="26"/>
       <c r="C16" s="25"/>
       <c r="D16" s="27"/>
     </row>
-    <row r="17" spans="1:4" ht="67.5">
+    <row r="17" spans="1:4" ht="57" x14ac:dyDescent="0.3">
       <c r="A17" s="21" t="s">
         <v>66</v>
       </c>
@@ -4292,7 +4283,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="17.25">
+    <row r="18" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A18" s="21" t="s">
         <v>95</v>
       </c>
@@ -4306,13 +4297,13 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="17.25">
+    <row r="19" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A19" s="25"/>
       <c r="B19" s="26"/>
       <c r="C19" s="25"/>
       <c r="D19" s="27"/>
     </row>
-    <row r="20" spans="1:4" ht="94.5">
+    <row r="20" spans="1:4" ht="99.75" x14ac:dyDescent="0.3">
       <c r="A20" s="21" t="s">
         <v>65</v>
       </c>
@@ -4324,7 +4315,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="54">
+    <row r="21" spans="1:4" ht="57" x14ac:dyDescent="0.3">
       <c r="A21" s="21" t="s">
         <v>64</v>
       </c>
@@ -4356,7 +4347,7 @@
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="41.125" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="41.125" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.875" customWidth="1"/>
     <col min="2" max="2" width="18.625" bestFit="1" customWidth="1"/>
@@ -4365,27 +4356,27 @@
     <col min="5" max="5" width="36.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5">
+    <row r="1" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="2" spans="2:5">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="2:5">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="4" spans="2:5">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="6" spans="2:5">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B6" s="33" t="s">
         <v>62</v>
       </c>
@@ -4399,7 +4390,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="7" spans="2:5" ht="297">
+    <row r="7" spans="2:5" ht="297" x14ac:dyDescent="0.3">
       <c r="B7" s="34" t="s">
         <v>138</v>
       </c>
@@ -4413,7 +4404,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="8" spans="2:5">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B8" s="30" t="s">
         <v>103</v>
       </c>
@@ -4427,7 +4418,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="9" spans="2:5">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B9" s="33"/>
       <c r="C9" s="33"/>
       <c r="D9" s="33"/>
@@ -4435,49 +4426,49 @@
         <v>104</v>
       </c>
     </row>
-    <row r="10" spans="2:5" ht="18.75">
+    <row r="10" spans="2:5" ht="18" x14ac:dyDescent="0.3">
       <c r="E10" s="32"/>
     </row>
-    <row r="11" spans="2:5" ht="18.75">
+    <row r="11" spans="2:5" ht="18" x14ac:dyDescent="0.3">
       <c r="E11" s="32"/>
     </row>
-    <row r="12" spans="2:5" ht="18.75">
+    <row r="12" spans="2:5" ht="18" x14ac:dyDescent="0.3">
       <c r="E12" s="32"/>
     </row>
-    <row r="13" spans="2:5" ht="18.75">
+    <row r="13" spans="2:5" ht="18" x14ac:dyDescent="0.3">
       <c r="E13" s="32"/>
     </row>
-    <row r="14" spans="2:5">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
       <c r="E14" s="31"/>
     </row>
-    <row r="15" spans="2:5" ht="18.75">
+    <row r="15" spans="2:5" ht="18" x14ac:dyDescent="0.3">
       <c r="E15" s="32"/>
     </row>
-    <row r="16" spans="2:5" ht="18.75">
+    <row r="16" spans="2:5" ht="18" x14ac:dyDescent="0.3">
       <c r="E16" s="32"/>
     </row>
-    <row r="17" spans="5:5" ht="18.75">
+    <row r="17" spans="5:5" ht="18" x14ac:dyDescent="0.3">
       <c r="E17" s="32"/>
     </row>
-    <row r="18" spans="5:5" ht="18.75">
+    <row r="18" spans="5:5" ht="18" x14ac:dyDescent="0.3">
       <c r="E18" s="32"/>
     </row>
-    <row r="19" spans="5:5" ht="18.75">
+    <row r="19" spans="5:5" ht="18" x14ac:dyDescent="0.3">
       <c r="E19" s="32"/>
     </row>
-    <row r="20" spans="5:5" ht="18.75">
+    <row r="20" spans="5:5" ht="18" x14ac:dyDescent="0.3">
       <c r="E20" s="32"/>
     </row>
-    <row r="21" spans="5:5">
+    <row r="21" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E21" s="31"/>
     </row>
-    <row r="22" spans="5:5" ht="18.75">
+    <row r="22" spans="5:5" ht="18" x14ac:dyDescent="0.3">
       <c r="E22" s="32"/>
     </row>
-    <row r="23" spans="5:5">
+    <row r="23" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E23" s="31"/>
     </row>
-    <row r="24" spans="5:5" ht="18.75">
+    <row r="24" spans="5:5" ht="18" x14ac:dyDescent="0.3">
       <c r="E24" s="32"/>
     </row>
   </sheetData>
@@ -4495,7 +4486,7 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.375" bestFit="1" customWidth="1"/>
@@ -4504,22 +4495,22 @@
     <col min="6" max="6" width="54.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="37"/>
       <c r="B6" s="4" t="s">
         <v>115</v>
@@ -4537,7 +4528,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="198">
+    <row r="7" spans="1:6" ht="198" x14ac:dyDescent="0.3">
       <c r="A7" s="37"/>
       <c r="B7" s="29" t="s">
         <v>110</v>
@@ -4555,7 +4546,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="82.5">
+    <row r="8" spans="1:6" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A8" s="37"/>
       <c r="B8" s="29" t="s">
         <v>111</v>
@@ -4573,7 +4564,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="165">
+    <row r="9" spans="1:6" ht="165" x14ac:dyDescent="0.3">
       <c r="A9" s="37"/>
       <c r="B9" s="4" t="s">
         <v>112</v>
@@ -4591,7 +4582,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="148.5">
+    <row r="10" spans="1:6" ht="148.5" x14ac:dyDescent="0.3">
       <c r="A10" s="37"/>
       <c r="B10" s="4" t="s">
         <v>113</v>
@@ -4607,7 +4598,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="82.5">
+    <row r="11" spans="1:6" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A11" s="37"/>
       <c r="B11" s="4" t="s">
         <v>114</v>
